--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>117.3279611918386</v>
+        <v>287.2626691101796</v>
       </c>
       <c r="R2">
-        <v>1055.951650726548</v>
+        <v>2585.364021991616</v>
       </c>
       <c r="S2">
-        <v>0.006540629097205005</v>
+        <v>0.0228558542388513</v>
       </c>
       <c r="T2">
-        <v>0.006540629097205007</v>
+        <v>0.02285585423885129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>180.2513819022898</v>
+        <v>236.5627409291804</v>
       </c>
       <c r="R3">
-        <v>1622.262437120608</v>
+        <v>2129.064668362624</v>
       </c>
       <c r="S3">
-        <v>0.01004839273865722</v>
+        <v>0.01882194975688503</v>
       </c>
       <c r="T3">
-        <v>0.01004839273865723</v>
+        <v>0.01882194975688503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>90.07035530126576</v>
+        <v>136.4805351520355</v>
       </c>
       <c r="R4">
-        <v>810.633197711392</v>
+        <v>1228.32481636832</v>
       </c>
       <c r="S4">
-        <v>0.005021111597735928</v>
+        <v>0.01085897874422001</v>
       </c>
       <c r="T4">
-        <v>0.005021111597735929</v>
+        <v>0.01085897874422001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H5">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I5">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J5">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>143.3629785144778</v>
+        <v>137.9483382165885</v>
       </c>
       <c r="R5">
-        <v>1290.2668066303</v>
+        <v>1241.535043949296</v>
       </c>
       <c r="S5">
-        <v>0.007991991501502326</v>
+        <v>0.0109757634729795</v>
       </c>
       <c r="T5">
-        <v>0.00799199150150233</v>
+        <v>0.0109757634729795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H6">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I6">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J6">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>72.01434000652532</v>
+        <v>103.9070249106898</v>
       </c>
       <c r="R6">
-        <v>648.129060058728</v>
+        <v>935.1632241962079</v>
       </c>
       <c r="S6">
-        <v>0.004014551031808589</v>
+        <v>0.008267290083698727</v>
       </c>
       <c r="T6">
-        <v>0.00401455103180859</v>
+        <v>0.008267290083698725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H7">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I7">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J7">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>94.53839508132889</v>
+        <v>173.8454269548071</v>
       </c>
       <c r="R7">
-        <v>850.8455557319601</v>
+        <v>1564.608842593264</v>
       </c>
       <c r="S7">
-        <v>0.005270189402345245</v>
+        <v>0.01383189034230532</v>
       </c>
       <c r="T7">
-        <v>0.005270189402345246</v>
+        <v>0.01383189034230532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>345.493222177099</v>
+        <v>644.5393826213693</v>
       </c>
       <c r="R8">
-        <v>3109.438999593891</v>
+        <v>5800.854443592325</v>
       </c>
       <c r="S8">
-        <v>0.01926005530909912</v>
+        <v>0.05128232716776352</v>
       </c>
       <c r="T8">
-        <v>0.01926005530909912</v>
+        <v>0.05128232716776352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>530.7825185291706</v>
@@ -1013,10 +1013,10 @@
         <v>4777.042666762536</v>
       </c>
       <c r="S9">
-        <v>0.02958929439933997</v>
+        <v>0.04223134148830206</v>
       </c>
       <c r="T9">
-        <v>0.02958929439933998</v>
+        <v>0.04223134148830206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>265.2283135201627</v>
+        <v>306.2252402625534</v>
       </c>
       <c r="R10">
-        <v>2387.054821681464</v>
+        <v>2756.027162362981</v>
       </c>
       <c r="S10">
-        <v>0.0147855635365226</v>
+        <v>0.02436459800842989</v>
       </c>
       <c r="T10">
-        <v>0.0147855635365226</v>
+        <v>0.02436459800842989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>422.1579995486917</v>
+        <v>309.5185915496077</v>
       </c>
       <c r="R11">
-        <v>3799.421995938225</v>
+        <v>2785.667323946469</v>
       </c>
       <c r="S11">
-        <v>0.02353385218167499</v>
+        <v>0.02462663121033326</v>
       </c>
       <c r="T11">
-        <v>0.02353385218167499</v>
+        <v>0.02462663121033326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>212.059138495814</v>
+        <v>233.1391332309597</v>
       </c>
       <c r="R12">
-        <v>1908.532246462326</v>
+        <v>2098.252199078637</v>
       </c>
       <c r="S12">
-        <v>0.01182156544343351</v>
+        <v>0.01854955279432833</v>
       </c>
       <c r="T12">
-        <v>0.01182156544343351</v>
+        <v>0.01854955279432833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>278.3852579070634</v>
+        <v>390.0619057397357</v>
       </c>
       <c r="R13">
-        <v>2505.46732116357</v>
+        <v>3510.557151657621</v>
       </c>
       <c r="S13">
-        <v>0.01551901779936933</v>
+        <v>0.03103500391934509</v>
       </c>
       <c r="T13">
-        <v>0.01551901779936934</v>
+        <v>0.03103500391934509</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H14">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>158.4575401471457</v>
+        <v>484.8612187131378</v>
       </c>
       <c r="R14">
-        <v>1426.117861324311</v>
+        <v>4363.75096841824</v>
       </c>
       <c r="S14">
-        <v>0.008833461241718434</v>
+        <v>0.03857764524470392</v>
       </c>
       <c r="T14">
-        <v>0.008833461241718436</v>
+        <v>0.03857764524470392</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H15">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>243.4389065847618</v>
+        <v>399.2864761172622</v>
       </c>
       <c r="R15">
-        <v>2190.950159262856</v>
+        <v>3593.57828505536</v>
       </c>
       <c r="S15">
-        <v>0.01357087926548596</v>
+        <v>0.03176895043811082</v>
       </c>
       <c r="T15">
-        <v>0.01357087926548596</v>
+        <v>0.03176895043811082</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H16">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>121.6447196067938</v>
+        <v>230.3610100449778</v>
       </c>
       <c r="R16">
-        <v>1094.802476461144</v>
+        <v>2073.2490904048</v>
       </c>
       <c r="S16">
-        <v>0.006781273487575817</v>
+        <v>0.01832851335751929</v>
       </c>
       <c r="T16">
-        <v>0.006781273487575817</v>
+        <v>0.01832851335751929</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H17">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>193.6191909653028</v>
+        <v>232.8384666003822</v>
       </c>
       <c r="R17">
-        <v>1742.572718687725</v>
+        <v>2095.54619940344</v>
       </c>
       <c r="S17">
-        <v>0.01079360197978999</v>
+        <v>0.01852563046322889</v>
       </c>
       <c r="T17">
-        <v>0.01079360197978999</v>
+        <v>0.01852563046322889</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H18">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>97.25912780582733</v>
+        <v>175.3812525905689</v>
       </c>
       <c r="R18">
-        <v>875.3321502524461</v>
+        <v>1578.43127331512</v>
       </c>
       <c r="S18">
-        <v>0.005421860866187322</v>
+        <v>0.01395408723957706</v>
       </c>
       <c r="T18">
-        <v>0.005421860866187322</v>
+        <v>0.01395408723957706</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H19">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>127.6790407152189</v>
+        <v>293.4279829749955</v>
       </c>
       <c r="R19">
-        <v>1149.11136643697</v>
+        <v>2640.85184677496</v>
       </c>
       <c r="S19">
-        <v>0.007117666073134433</v>
+        <v>0.02334639314342771</v>
       </c>
       <c r="T19">
-        <v>0.007117666073134435</v>
+        <v>0.02334639314342771</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H20">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>1737.550223835967</v>
+        <v>414.5960990256133</v>
       </c>
       <c r="R20">
-        <v>15637.95201452371</v>
+        <v>3731.36489123052</v>
       </c>
       <c r="S20">
-        <v>0.09686243105592401</v>
+        <v>0.03298704992430213</v>
       </c>
       <c r="T20">
-        <v>0.09686243105592403</v>
+        <v>0.03298704992430213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H21">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>2669.404852769674</v>
+        <v>341.4226772585866</v>
       </c>
       <c r="R21">
-        <v>24024.64367492706</v>
+        <v>3072.80409532728</v>
       </c>
       <c r="S21">
-        <v>0.148810112055881</v>
+        <v>0.02716505757407549</v>
       </c>
       <c r="T21">
-        <v>0.148810112055881</v>
+        <v>0.02716505757407549</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H22">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>1333.882941669882</v>
+        <v>196.9775524339333</v>
       </c>
       <c r="R22">
-        <v>12004.94647502894</v>
+        <v>1772.7979719054</v>
       </c>
       <c r="S22">
-        <v>0.07435937258200911</v>
+        <v>0.01567238179851658</v>
       </c>
       <c r="T22">
-        <v>0.07435937258200911</v>
+        <v>0.01567238179851658</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H23">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>2123.111770435753</v>
+        <v>199.0959809320967</v>
       </c>
       <c r="R23">
-        <v>19108.00593392177</v>
+        <v>1791.86382838887</v>
       </c>
       <c r="S23">
-        <v>0.1183561572302891</v>
+        <v>0.0158409330868529</v>
       </c>
       <c r="T23">
-        <v>0.1183561572302892</v>
+        <v>0.0158409330868529</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H24">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>1066.485186707919</v>
+        <v>149.9653516510567</v>
       </c>
       <c r="R24">
-        <v>9598.366680371273</v>
+        <v>1349.68816485951</v>
       </c>
       <c r="S24">
-        <v>0.05945287016889837</v>
+        <v>0.01193188877911588</v>
       </c>
       <c r="T24">
-        <v>0.05945287016889838</v>
+        <v>0.01193188877911588</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H25">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>1400.051683043159</v>
+        <v>250.9049855735367</v>
       </c>
       <c r="R25">
-        <v>12600.46514738843</v>
+        <v>2258.14487016183</v>
       </c>
       <c r="S25">
-        <v>0.07804805165522558</v>
+        <v>0.01996308046511368</v>
       </c>
       <c r="T25">
-        <v>0.07804805165522559</v>
+        <v>0.01996308046511368</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H26">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>439.6660353626346</v>
+        <v>757.3881442584066</v>
       </c>
       <c r="R26">
-        <v>3956.994318263712</v>
+        <v>6816.493298325659</v>
       </c>
       <c r="S26">
-        <v>0.02450986478187986</v>
+        <v>0.06026106030771678</v>
       </c>
       <c r="T26">
-        <v>0.02450986478187986</v>
+        <v>0.06026106030771678</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H27">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>675.460560676039</v>
+        <v>623.7142330676932</v>
       </c>
       <c r="R27">
-        <v>6079.145046084352</v>
+        <v>5613.428097609239</v>
       </c>
       <c r="S27">
-        <v>0.03765459616185182</v>
+        <v>0.04962538864464988</v>
       </c>
       <c r="T27">
-        <v>0.03765459616185184</v>
+        <v>0.04962538864464988</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H28">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>337.5229196581831</v>
+        <v>359.8404887289666</v>
       </c>
       <c r="R28">
-        <v>3037.706276923648</v>
+        <v>3238.5643985607</v>
       </c>
       <c r="S28">
-        <v>0.01881573843834475</v>
+        <v>0.02863045791888741</v>
       </c>
       <c r="T28">
-        <v>0.01881573843834475</v>
+        <v>0.02863045791888741</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H29">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>537.2277140159111</v>
+        <v>363.7104542996483</v>
       </c>
       <c r="R29">
-        <v>4835.0494261432</v>
+        <v>3273.394088696835</v>
       </c>
       <c r="S29">
-        <v>0.02994859181412093</v>
+        <v>0.0289383690347552</v>
       </c>
       <c r="T29">
-        <v>0.02994859181412093</v>
+        <v>0.0289383690347552</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H30">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>269.8611570361813</v>
+        <v>273.9581478383283</v>
       </c>
       <c r="R30">
-        <v>2428.750413325632</v>
+        <v>2465.623330544955</v>
       </c>
       <c r="S30">
-        <v>0.01504382858089785</v>
+        <v>0.02179728926816067</v>
       </c>
       <c r="T30">
-        <v>0.01504382858089786</v>
+        <v>0.02179728926816067</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H31">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>354.2661180909155</v>
+        <v>458.3556426491683</v>
       </c>
       <c r="R31">
-        <v>3188.39506281824</v>
+        <v>4125.200783842514</v>
       </c>
       <c r="S31">
-        <v>0.01974911399296083</v>
+        <v>0.03646874754173608</v>
       </c>
       <c r="T31">
-        <v>0.01974911399296084</v>
+        <v>0.03646874754173608</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H32">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>218.6667267144146</v>
+        <v>766.7651194224183</v>
       </c>
       <c r="R32">
-        <v>1968.000540429732</v>
+        <v>6900.886074801764</v>
       </c>
       <c r="S32">
-        <v>0.01218991569281919</v>
+        <v>0.06100713280719557</v>
       </c>
       <c r="T32">
-        <v>0.0121899156928192</v>
+        <v>0.06100713280719557</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H33">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>335.9385032002524</v>
+        <v>631.4362352105218</v>
       </c>
       <c r="R33">
-        <v>3023.446528802272</v>
+        <v>5682.926116894696</v>
       </c>
       <c r="S33">
-        <v>0.01872741268648166</v>
+        <v>0.05023978436810149</v>
       </c>
       <c r="T33">
-        <v>0.01872741268648167</v>
+        <v>0.05023978436810148</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H34">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>167.8661213206364</v>
+        <v>364.2955562546423</v>
       </c>
       <c r="R34">
-        <v>1510.795091885728</v>
+        <v>3278.66000629178</v>
       </c>
       <c r="S34">
-        <v>0.009357957185921625</v>
+        <v>0.0289849222643817</v>
       </c>
       <c r="T34">
-        <v>0.009357957185921625</v>
+        <v>0.02898492226438169</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H35">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>267.1887666447444</v>
+        <v>368.2134346046789</v>
       </c>
       <c r="R35">
-        <v>2404.6988998027</v>
+        <v>3313.92091144211</v>
       </c>
       <c r="S35">
-        <v>0.01489485203536031</v>
+        <v>0.02929664552717588</v>
       </c>
       <c r="T35">
-        <v>0.01489485203536031</v>
+        <v>0.02929664552717587</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H36">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>134.2147246552613</v>
+        <v>277.3499341604841</v>
       </c>
       <c r="R36">
-        <v>1207.932521897352</v>
+        <v>2496.149407444357</v>
       </c>
       <c r="S36">
-        <v>0.007482007907034384</v>
+        <v>0.02206715438508886</v>
       </c>
       <c r="T36">
-        <v>0.007482007907034385</v>
+        <v>0.02206715438508886</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H37">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>176.1933062781822</v>
+        <v>464.0303941091535</v>
       </c>
       <c r="R37">
-        <v>1585.73975650364</v>
+        <v>4176.273546982381</v>
       </c>
       <c r="S37">
-        <v>0.009822169021513637</v>
+        <v>0.03692025519016422</v>
       </c>
       <c r="T37">
-        <v>0.009822169021513638</v>
+        <v>0.03692025519016422</v>
       </c>
     </row>
   </sheetData>
